--- a/data/MorganStanley/4.xlsx
+++ b/data/MorganStanley/4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\MorganStanley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\MorganStanley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939E666-6DE3-4A53-BBBD-9690A83D7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF63CAB-2086-4F87-A0C6-9EB28BDD7BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,164 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>College Roll Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Abhishek Ramasubramanian</t>
   </si>
   <si>
-    <t>19BCE0049</t>
-  </si>
-  <si>
     <t>Vinamra Khoria</t>
   </si>
   <si>
-    <t>19BCE0624</t>
-  </si>
-  <si>
     <t>Vaibhav Chopra</t>
   </si>
   <si>
-    <t>19BCE0932</t>
-  </si>
-  <si>
     <t>Rohan Sirohia</t>
   </si>
   <si>
-    <t>19BCE0984</t>
-  </si>
-  <si>
     <t>Gandharv Sachdeva</t>
   </si>
   <si>
-    <t>19BCE0842</t>
-  </si>
-  <si>
     <t>Sudhanshu Gupta</t>
   </si>
   <si>
-    <t>19BCE2674</t>
-  </si>
-  <si>
     <t>Riya Kumar</t>
   </si>
   <si>
-    <t>19BCE2694</t>
-  </si>
-  <si>
     <t>Yashi Shukla</t>
   </si>
   <si>
-    <t>19BCI0188</t>
-  </si>
-  <si>
     <t>Mounvi Podapati</t>
   </si>
   <si>
-    <t>19BCE0396</t>
-  </si>
-  <si>
     <t>Arshita Marwaha</t>
   </si>
   <si>
-    <t>19BIT0042</t>
-  </si>
-  <si>
     <t>Ujjwal Pandey</t>
   </si>
   <si>
-    <t>19BAI1019</t>
-  </si>
-  <si>
     <t>Shourya Gupta</t>
   </si>
   <si>
-    <t>19BCE1704</t>
-  </si>
-  <si>
     <t>Nitika Verma</t>
   </si>
   <si>
-    <t>19BCE1060</t>
-  </si>
-  <si>
     <t>Vaibhave S</t>
   </si>
   <si>
-    <t>19BCE1401</t>
-  </si>
-  <si>
     <t>Maulishree Awasthi</t>
   </si>
   <si>
-    <t>19BCE1864</t>
-  </si>
-  <si>
     <t>S Deeksha</t>
   </si>
   <si>
-    <t>19BPS1090</t>
-  </si>
-  <si>
     <t>Amit Kumar</t>
   </si>
   <si>
-    <t>19bce1281</t>
-  </si>
-  <si>
     <t>Tanishq Gupta</t>
   </si>
   <si>
-    <t>19BCE1392</t>
-  </si>
-  <si>
     <t>Sriram Namana</t>
   </si>
   <si>
-    <t>19BPS1072</t>
-  </si>
-  <si>
     <t>Gyanadipta Mohanty</t>
   </si>
   <si>
-    <t>19BCE1224</t>
-  </si>
-  <si>
     <t>Jagruthi Adusumilli</t>
   </si>
   <si>
-    <t>19BCD7060</t>
-  </si>
-  <si>
     <t>Chada Radha Amuktha Bhargavi</t>
-  </si>
-  <si>
-    <t>19BCN7021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -205,40 +126,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -254,33 +147,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,196 +436,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="11" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="13" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="15" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="16" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="17" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="19" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="21" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
